--- a/data/Genshin Impact Data.xlsx
+++ b/data/Genshin Impact Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeFiles\Github\cool-apps\genshin-crafting-table\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F15190-2BF6-4E72-BF79-A433A0638295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536D663-2C11-4A42-93B4-E790DEF8A518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{786E68F0-8863-4571-A8DF-93FEE407AF97}"/>
   </bookViews>
@@ -34,16 +34,211 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="66">
   <si>
     <t>GENSHIN DATA</t>
+  </si>
+  <si>
+    <t>Base Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Amber</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>ATK%</t>
+  </si>
+  <si>
+    <t>1st Ascension</t>
+  </si>
+  <si>
+    <t>2nd Ascension</t>
+  </si>
+  <si>
+    <t>3rd Ascension</t>
+  </si>
+  <si>
+    <t>4th Ascension</t>
+  </si>
+  <si>
+    <t>5th Ascension</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>HP%</t>
+  </si>
+  <si>
+    <t>Beidou</t>
+  </si>
+  <si>
+    <t>Electro DMG%</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Energy Recharge</t>
+  </si>
+  <si>
+    <t>Childe</t>
+  </si>
+  <si>
+    <t>Hydro DMG%</t>
+  </si>
+  <si>
+    <t>Chongyun</t>
+  </si>
+  <si>
+    <t>Diluc</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>CRIT Rate%</t>
+  </si>
+  <si>
+    <t>Diona</t>
+  </si>
+  <si>
+    <t>Fischl</t>
+  </si>
+  <si>
+    <t>Cryo DMG Bonus%</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Healing%</t>
+  </si>
+  <si>
+    <t>Kaeya</t>
+  </si>
+  <si>
+    <t>Energy Recharge%</t>
+  </si>
+  <si>
+    <t>Keqing</t>
+  </si>
+  <si>
+    <t>Klee</t>
+  </si>
+  <si>
+    <t>CRIT DMG%</t>
+  </si>
+  <si>
+    <t>Pyro DMG%</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Elemental Mastery</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>Ningguang</t>
+  </si>
+  <si>
+    <t>Geo DMG%</t>
+  </si>
+  <si>
+    <t>Noelle</t>
+  </si>
+  <si>
+    <t>DEF%</t>
+  </si>
+  <si>
+    <t>Qiqi</t>
+  </si>
+  <si>
+    <t>Healing Bonus%</t>
+  </si>
+  <si>
+    <t>Razor</t>
+  </si>
+  <si>
+    <t>Physical DMG%</t>
+  </si>
+  <si>
+    <t>Sucrose</t>
+  </si>
+  <si>
+    <t>Anemo DMG%</t>
+  </si>
+  <si>
+    <t>Traveler</t>
+  </si>
+  <si>
+    <t>Venti</t>
+  </si>
+  <si>
+    <t>Xiangling</t>
+  </si>
+  <si>
+    <t>Xiao</t>
+  </si>
+  <si>
+    <t>Xingqiu</t>
+  </si>
+  <si>
+    <t>Base ATK</t>
+  </si>
+  <si>
+    <t>((Weapon Base ATK + Character Base ATK)*(1 + ATK%) + Flat ATK)</t>
+  </si>
+  <si>
+    <t>Estimated Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">((Base ATK * (1 + ATK%) + FLAT ATK)*(1 + Corresponding Dmg Bonus%)*(Skill Multiplier)*[(100+Character Level)/((100+Character Level) + </t>
+  </si>
+  <si>
+    <t>(100+Enemy Level)*Defence drop)]*(1 - Corresponding Enemy RES%))*(1 + (Crit Rate%*Crit DMG%))</t>
+  </si>
+  <si>
+    <t>Formulas</t>
+  </si>
+  <si>
+    <t>Enemy Defence</t>
+  </si>
+  <si>
+    <t>(Character Level + 100) ÷ [(1 - DEF Reduction Debuffs%) × (Enemy Level + 100) + (Character Level + 100)]</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>CRIT Rate: 5%</t>
+  </si>
+  <si>
+    <t>CRIT DMG: 50%</t>
+  </si>
+  <si>
+    <t>Energy Recharge: 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +246,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,14 +305,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,20 +676,5616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30B7E8B-3911-4AD7-A866-39BF1884B242}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="O357" sqref="O357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>793</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2038</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2630</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>167</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>3940</v>
+      </c>
+      <c r="F9" s="1">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1">
+        <v>250</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4361</v>
+      </c>
+      <c r="F10" s="3">
+        <v>103</v>
+      </c>
+      <c r="G10" s="3">
+        <v>277</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5016</v>
+      </c>
+      <c r="F11" s="3">
+        <v>118</v>
+      </c>
+      <c r="G11" s="3">
+        <v>318</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5578</v>
+      </c>
+      <c r="F12" s="1">
+        <v>132</v>
+      </c>
+      <c r="G12" s="1">
+        <v>354</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5">
+        <v>6233</v>
+      </c>
+      <c r="F13" s="1">
+        <v>147</v>
+      </c>
+      <c r="G13" s="1">
+        <v>396</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6654</v>
+      </c>
+      <c r="F14" s="3">
+        <v>157</v>
+      </c>
+      <c r="G14" s="3">
+        <v>422</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7309</v>
+      </c>
+      <c r="F15" s="3">
+        <v>172</v>
+      </c>
+      <c r="G15" s="3">
+        <v>464</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7730</v>
+      </c>
+      <c r="F16" s="1">
+        <v>182</v>
+      </c>
+      <c r="G16" s="1">
+        <v>491</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8385</v>
+      </c>
+      <c r="F17" s="1">
+        <v>198</v>
+      </c>
+      <c r="G17" s="1">
+        <v>532</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>821</v>
+      </c>
+      <c r="F21" s="3">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3">
+        <v>56</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2108</v>
+      </c>
+      <c r="F22" s="3">
+        <v>34</v>
+      </c>
+      <c r="G22" s="3">
+        <v>144</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2721</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1">
+        <v>186</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4076</v>
+      </c>
+      <c r="F24" s="1">
+        <v>67</v>
+      </c>
+      <c r="G24" s="1">
+        <v>279</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4512</v>
+      </c>
+      <c r="F25" s="3">
+        <v>74</v>
+      </c>
+      <c r="G25" s="3">
+        <v>308</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5189</v>
+      </c>
+      <c r="F26" s="3">
+        <v>84</v>
+      </c>
+      <c r="G26" s="3">
+        <v>355</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5770</v>
+      </c>
+      <c r="F27" s="1">
+        <v>94</v>
+      </c>
+      <c r="G27" s="1">
+        <v>394</v>
+      </c>
+      <c r="H27" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6448</v>
+      </c>
+      <c r="F28" s="1">
+        <v>105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>441</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6884</v>
+      </c>
+      <c r="F29" s="3">
+        <v>112</v>
+      </c>
+      <c r="G29" s="3">
+        <v>470</v>
+      </c>
+      <c r="H29" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2">
+        <v>7561</v>
+      </c>
+      <c r="F30" s="3">
+        <v>123</v>
+      </c>
+      <c r="G30" s="3">
+        <v>517</v>
+      </c>
+      <c r="H30" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7996</v>
+      </c>
+      <c r="F31" s="1">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1">
+        <v>546</v>
+      </c>
+      <c r="H31" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8674</v>
+      </c>
+      <c r="F32" s="1">
+        <v>141</v>
+      </c>
+      <c r="G32" s="1">
+        <v>593</v>
+      </c>
+      <c r="H32" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1094</v>
+      </c>
+      <c r="F36" s="3">
+        <v>19</v>
+      </c>
+      <c r="G36" s="3">
+        <v>54</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2811</v>
+      </c>
+      <c r="F37" s="3">
+        <v>49</v>
+      </c>
+      <c r="G37" s="3">
+        <v>140</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3628</v>
+      </c>
+      <c r="F38" s="1">
+        <v>63</v>
+      </c>
+      <c r="G38" s="1">
+        <v>180</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="E39" s="5">
+        <v>5435</v>
+      </c>
+      <c r="F39" s="1">
+        <v>94</v>
+      </c>
+      <c r="G39" s="1">
+        <v>270</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6015</v>
+      </c>
+      <c r="F40" s="3">
+        <v>104</v>
+      </c>
+      <c r="G40" s="3">
+        <v>299</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6919</v>
+      </c>
+      <c r="F41" s="3">
+        <v>120</v>
+      </c>
+      <c r="G41" s="3">
+        <v>344</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5">
+        <v>7694</v>
+      </c>
+      <c r="F42" s="1">
+        <v>133</v>
+      </c>
+      <c r="G42" s="1">
+        <v>382</v>
+      </c>
+      <c r="H42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8597</v>
+      </c>
+      <c r="F43" s="1">
+        <v>148</v>
+      </c>
+      <c r="G43" s="1">
+        <v>427</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9178</v>
+      </c>
+      <c r="F44" s="3">
+        <v>158</v>
+      </c>
+      <c r="G44" s="3">
+        <v>456</v>
+      </c>
+      <c r="H44" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>70</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10081</v>
+      </c>
+      <c r="F45" s="3">
+        <v>174</v>
+      </c>
+      <c r="G45" s="3">
+        <v>501</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="5">
+        <v>10662</v>
+      </c>
+      <c r="F46" s="1">
+        <v>184</v>
+      </c>
+      <c r="G46" s="1">
+        <v>530</v>
+      </c>
+      <c r="H46" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>80</v>
+      </c>
+      <c r="E47" s="5">
+        <v>11565</v>
+      </c>
+      <c r="F47" s="1">
+        <v>199</v>
+      </c>
+      <c r="G47" s="1">
+        <v>575</v>
+      </c>
+      <c r="H47" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1039</v>
+      </c>
+      <c r="F51" s="3">
+        <v>16</v>
+      </c>
+      <c r="G51" s="3">
+        <v>65</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2670</v>
+      </c>
+      <c r="F52" s="3">
+        <v>41</v>
+      </c>
+      <c r="G52" s="3">
+        <v>166</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3447</v>
+      </c>
+      <c r="F53" s="1">
+        <v>53</v>
+      </c>
+      <c r="G53" s="1">
+        <v>214</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="E54" s="5">
+        <v>5163</v>
+      </c>
+      <c r="F54" s="1">
+        <v>80</v>
+      </c>
+      <c r="G54" s="1">
+        <v>321</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5715</v>
+      </c>
+      <c r="F55" s="3">
+        <v>88</v>
+      </c>
+      <c r="G55" s="3">
+        <v>356</v>
+      </c>
+      <c r="H55" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2">
+        <v>6573</v>
+      </c>
+      <c r="F56" s="3">
+        <v>102</v>
+      </c>
+      <c r="G56" s="3">
+        <v>409</v>
+      </c>
+      <c r="H56" s="7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5">
+        <v>7309</v>
+      </c>
+      <c r="F57" s="1">
+        <v>113</v>
+      </c>
+      <c r="G57" s="1">
+        <v>455</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="E58" s="5">
+        <v>8168</v>
+      </c>
+      <c r="F58" s="1">
+        <v>126</v>
+      </c>
+      <c r="G58" s="1">
+        <v>508</v>
+      </c>
+      <c r="H58" s="8">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8719</v>
+      </c>
+      <c r="F59" s="3">
+        <v>135</v>
+      </c>
+      <c r="G59" s="3">
+        <v>542</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>70</v>
+      </c>
+      <c r="E60" s="2">
+        <v>9577</v>
+      </c>
+      <c r="F60" s="3">
+        <v>148</v>
+      </c>
+      <c r="G60" s="3">
+        <v>596</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="5">
+        <v>10129</v>
+      </c>
+      <c r="F61" s="1">
+        <v>156</v>
+      </c>
+      <c r="G61" s="1">
+        <v>630</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>80</v>
+      </c>
+      <c r="E62" s="5">
+        <v>10987</v>
+      </c>
+      <c r="F62" s="1">
+        <v>169</v>
+      </c>
+      <c r="G62" s="1">
+        <v>684</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1020</v>
+      </c>
+      <c r="F66" s="3">
+        <v>47</v>
+      </c>
+      <c r="G66" s="3">
+        <v>63</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2646</v>
+      </c>
+      <c r="F67" s="3">
+        <v>61</v>
+      </c>
+      <c r="G67" s="3">
+        <v>165</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5">
+        <v>3521</v>
+      </c>
+      <c r="F68" s="1">
+        <v>81</v>
+      </c>
+      <c r="G68" s="1">
+        <v>219</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>40</v>
+      </c>
+      <c r="E69" s="5">
+        <v>5268</v>
+      </c>
+      <c r="F69" s="1">
+        <v>121</v>
+      </c>
+      <c r="G69" s="1">
+        <v>328</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5889</v>
+      </c>
+      <c r="F70" s="3">
+        <v>136</v>
+      </c>
+      <c r="G70" s="3">
+        <v>366</v>
+      </c>
+      <c r="H70" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="E71" s="2">
+        <v>6776</v>
+      </c>
+      <c r="F71" s="3">
+        <v>156</v>
+      </c>
+      <c r="G71" s="3">
+        <v>421</v>
+      </c>
+      <c r="H71" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5">
+        <v>7604</v>
+      </c>
+      <c r="F72" s="1">
+        <v>175</v>
+      </c>
+      <c r="G72" s="1">
+        <v>473</v>
+      </c>
+      <c r="H72" s="8">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>60</v>
+      </c>
+      <c r="E73" s="5">
+        <v>8500</v>
+      </c>
+      <c r="F73" s="1">
+        <v>196</v>
+      </c>
+      <c r="G73" s="1">
+        <v>528</v>
+      </c>
+      <c r="H73" s="8">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2">
+        <v>9121</v>
+      </c>
+      <c r="F74" s="3">
+        <v>210</v>
+      </c>
+      <c r="G74" s="3">
+        <v>567</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>70</v>
+      </c>
+      <c r="E75" s="2">
+        <v>10025</v>
+      </c>
+      <c r="F75" s="3">
+        <v>231</v>
+      </c>
+      <c r="G75" s="3">
+        <v>623</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="5">
+        <v>10647</v>
+      </c>
+      <c r="F76" s="1">
+        <v>245</v>
+      </c>
+      <c r="G76" s="1">
+        <v>662</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>80</v>
+      </c>
+      <c r="E77" s="5">
+        <v>11561</v>
+      </c>
+      <c r="F77" s="1">
+        <v>266</v>
+      </c>
+      <c r="G77" s="1">
+        <v>719</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F81" s="3">
+        <v>19</v>
+      </c>
+      <c r="G81" s="3">
+        <v>54</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2366</v>
+      </c>
+      <c r="F82" s="3">
+        <v>48</v>
+      </c>
+      <c r="G82" s="3">
+        <v>140</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3054</v>
+      </c>
+      <c r="F83" s="1">
+        <v>62</v>
+      </c>
+      <c r="G83" s="1">
+        <v>180</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>40</v>
+      </c>
+      <c r="E84" s="5">
+        <v>4574</v>
+      </c>
+      <c r="F84" s="1">
+        <v>93</v>
+      </c>
+      <c r="G84" s="1">
+        <v>270</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="2">
+        <v>5063</v>
+      </c>
+      <c r="F85" s="3">
+        <v>103</v>
+      </c>
+      <c r="G85" s="3">
+        <v>299</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>50</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5824</v>
+      </c>
+      <c r="F86" s="3">
+        <v>119</v>
+      </c>
+      <c r="G86" s="3">
+        <v>344</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="5">
+        <v>6475</v>
+      </c>
+      <c r="F87" s="1">
+        <v>132</v>
+      </c>
+      <c r="G87" s="1">
+        <v>382</v>
+      </c>
+      <c r="H87" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>60</v>
+      </c>
+      <c r="E88" s="5">
+        <v>7236</v>
+      </c>
+      <c r="F88" s="1">
+        <v>147</v>
+      </c>
+      <c r="G88" s="1">
+        <v>427</v>
+      </c>
+      <c r="H88" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2">
+        <v>7725</v>
+      </c>
+      <c r="F89" s="3">
+        <v>158</v>
+      </c>
+      <c r="G89" s="3">
+        <v>456</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>70</v>
+      </c>
+      <c r="E90" s="2">
+        <v>8485</v>
+      </c>
+      <c r="F90" s="3">
+        <v>172</v>
+      </c>
+      <c r="G90" s="3">
+        <v>501</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="5">
+        <v>8974</v>
+      </c>
+      <c r="F91" s="1">
+        <v>182</v>
+      </c>
+      <c r="G91" s="1">
+        <v>530</v>
+      </c>
+      <c r="H91" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>80</v>
+      </c>
+      <c r="E92" s="5">
+        <v>9734</v>
+      </c>
+      <c r="F92" s="1">
+        <v>198</v>
+      </c>
+      <c r="G92" s="1">
+        <v>575</v>
+      </c>
+      <c r="H92" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1011</v>
+      </c>
+      <c r="F96" s="3">
+        <v>26</v>
+      </c>
+      <c r="G96" s="3">
+        <v>61</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2237</v>
+      </c>
+      <c r="F97" s="3">
+        <v>95</v>
+      </c>
+      <c r="G97" s="3">
+        <v>113</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>40</v>
+      </c>
+      <c r="E99" s="5">
+        <v>5219</v>
+      </c>
+      <c r="F99" s="1">
+        <v>135</v>
+      </c>
+      <c r="G99" s="1">
+        <v>315</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="2">
+        <v>5834</v>
+      </c>
+      <c r="F100" s="3">
+        <v>151</v>
+      </c>
+      <c r="G100" s="3">
+        <v>352</v>
+      </c>
+      <c r="H100" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>50</v>
+      </c>
+      <c r="E101" s="2">
+        <v>6712</v>
+      </c>
+      <c r="F101" s="3">
+        <v>173</v>
+      </c>
+      <c r="G101" s="3">
+        <v>405</v>
+      </c>
+      <c r="H101" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="5">
+        <v>7533</v>
+      </c>
+      <c r="F102" s="1">
+        <v>195</v>
+      </c>
+      <c r="G102" s="1">
+        <v>455</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>60</v>
+      </c>
+      <c r="E103" s="5">
+        <v>8421</v>
+      </c>
+      <c r="F103" s="1">
+        <v>217</v>
+      </c>
+      <c r="G103" s="1">
+        <v>509</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2">
+        <v>9036</v>
+      </c>
+      <c r="F104" s="3">
+        <v>233</v>
+      </c>
+      <c r="G104" s="3">
+        <v>546</v>
+      </c>
+      <c r="H104" s="7">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>70</v>
+      </c>
+      <c r="E105" s="2">
+        <v>9932</v>
+      </c>
+      <c r="F105" s="3">
+        <v>256</v>
+      </c>
+      <c r="G105" s="3">
+        <v>600</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="5">
+        <v>10547</v>
+      </c>
+      <c r="F106" s="1">
+        <v>272</v>
+      </c>
+      <c r="G106" s="1">
+        <v>637</v>
+      </c>
+      <c r="H106" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>80</v>
+      </c>
+      <c r="E107" s="5">
+        <v>11453</v>
+      </c>
+      <c r="F107" s="1">
+        <v>296</v>
+      </c>
+      <c r="G107" s="1">
+        <v>692</v>
+      </c>
+      <c r="H107" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>802</v>
+      </c>
+      <c r="F111" s="3">
+        <v>41</v>
+      </c>
+      <c r="G111" s="3">
+        <v>50</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2061</v>
+      </c>
+      <c r="F112" s="3">
+        <v>69</v>
+      </c>
+      <c r="G112" s="3">
+        <v>129</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="5">
+        <v>2661</v>
+      </c>
+      <c r="F113" s="1">
+        <v>82</v>
+      </c>
+      <c r="G113" s="1">
+        <v>167</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>40</v>
+      </c>
+      <c r="E114" s="5">
+        <v>3985</v>
+      </c>
+      <c r="F114" s="1">
+        <v>112</v>
+      </c>
+      <c r="G114" s="1">
+        <v>250</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="2">
+        <v>4411</v>
+      </c>
+      <c r="F115" s="3">
+        <v>121</v>
+      </c>
+      <c r="G115" s="3">
+        <v>277</v>
+      </c>
+      <c r="H115" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="E116" s="3">
+        <v>5074</v>
+      </c>
+      <c r="F116" s="3">
+        <v>71</v>
+      </c>
+      <c r="G116" s="3">
+        <v>252</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="1">
+        <v>5642</v>
+      </c>
+      <c r="F117" s="1">
+        <v>84</v>
+      </c>
+      <c r="G117" s="1">
+        <v>288</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C118">
+        <v>60</v>
+      </c>
+      <c r="E118" s="1">
+        <v>6305</v>
+      </c>
+      <c r="F118" s="1">
+        <v>140</v>
+      </c>
+      <c r="G118" s="1">
+        <v>396</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="3">
+        <v>6731</v>
+      </c>
+      <c r="F119" s="3">
+        <v>149</v>
+      </c>
+      <c r="G119" s="3">
+        <v>422</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>70</v>
+      </c>
+      <c r="E120" s="3">
+        <v>7393</v>
+      </c>
+      <c r="F120" s="3">
+        <v>164</v>
+      </c>
+      <c r="G120" s="3">
+        <v>464</v>
+      </c>
+      <c r="H120" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="1">
+        <v>7818</v>
+      </c>
+      <c r="F121" s="1">
+        <v>173</v>
+      </c>
+      <c r="G121" s="1">
+        <v>491</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>80</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>770</v>
+      </c>
+      <c r="F126" s="3">
+        <v>21</v>
+      </c>
+      <c r="G126" s="3">
+        <v>50</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1979</v>
+      </c>
+      <c r="F127" s="3">
+        <v>53</v>
+      </c>
+      <c r="G127" s="3">
+        <v>128</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="5">
+        <v>2555</v>
+      </c>
+      <c r="F128" s="1">
+        <v>68</v>
+      </c>
+      <c r="G128" s="1">
+        <v>165</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129">
+        <v>40</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3827</v>
+      </c>
+      <c r="F129" s="1">
+        <v>102</v>
+      </c>
+      <c r="G129" s="1">
+        <v>247</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2">
+        <v>4236</v>
+      </c>
+      <c r="F130" s="3">
+        <v>113</v>
+      </c>
+      <c r="G130" s="3">
+        <v>274</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>50</v>
+      </c>
+      <c r="E131" s="2">
+        <v>4872</v>
+      </c>
+      <c r="F131" s="3">
+        <v>130</v>
+      </c>
+      <c r="G131" s="3">
+        <v>315</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="5">
+        <v>5418</v>
+      </c>
+      <c r="F132" s="1">
+        <v>144</v>
+      </c>
+      <c r="G132" s="1">
+        <v>350</v>
+      </c>
+      <c r="H132" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>60</v>
+      </c>
+      <c r="E133" s="5">
+        <v>6054</v>
+      </c>
+      <c r="F133" s="1">
+        <v>161</v>
+      </c>
+      <c r="G133" s="1">
+        <v>391</v>
+      </c>
+      <c r="H133" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2">
+        <v>6463</v>
+      </c>
+      <c r="F134" s="3">
+        <v>172</v>
+      </c>
+      <c r="G134" s="3">
+        <v>418</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>70</v>
+      </c>
+      <c r="E135" s="2">
+        <v>7099</v>
+      </c>
+      <c r="F135" s="3">
+        <v>189</v>
+      </c>
+      <c r="G135" s="3">
+        <v>459</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="5">
+        <v>7508</v>
+      </c>
+      <c r="F136" s="1">
+        <v>200</v>
+      </c>
+      <c r="G136" s="1">
+        <v>485</v>
+      </c>
+      <c r="H136" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>80</v>
+      </c>
+      <c r="E137" s="5">
+        <v>8144</v>
+      </c>
+      <c r="F137" s="1">
+        <v>216</v>
+      </c>
+      <c r="G137" s="1">
+        <v>526</v>
+      </c>
+      <c r="H137" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1144</v>
+      </c>
+      <c r="F141" s="3">
+        <v>19</v>
+      </c>
+      <c r="G141" s="3">
+        <v>60</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>20</v>
+      </c>
+      <c r="E142" s="2">
+        <v>2967</v>
+      </c>
+      <c r="F142" s="3">
+        <v>49</v>
+      </c>
+      <c r="G142" s="3">
+        <v>155</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="5">
+        <v>3948</v>
+      </c>
+      <c r="F143" s="1">
+        <v>65</v>
+      </c>
+      <c r="G143" s="1">
+        <v>206</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>40</v>
+      </c>
+      <c r="E144" s="5">
+        <v>5908</v>
+      </c>
+      <c r="F144" s="1">
+        <v>96</v>
+      </c>
+      <c r="G144" s="1">
+        <v>309</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="2">
+        <v>6605</v>
+      </c>
+      <c r="F145" s="3">
+        <v>108</v>
+      </c>
+      <c r="G145" s="3">
+        <v>345</v>
+      </c>
+      <c r="H145" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>50</v>
+      </c>
+      <c r="E146" s="2">
+        <v>7599</v>
+      </c>
+      <c r="F146" s="3">
+        <v>124</v>
+      </c>
+      <c r="G146" s="3">
+        <v>397</v>
+      </c>
+      <c r="H146" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="5">
+        <v>8528</v>
+      </c>
+      <c r="F147" s="1">
+        <v>139</v>
+      </c>
+      <c r="G147" s="1">
+        <v>446</v>
+      </c>
+      <c r="H147" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>60</v>
+      </c>
+      <c r="E148" s="5">
+        <v>9533</v>
+      </c>
+      <c r="F148" s="1">
+        <v>155</v>
+      </c>
+      <c r="G148" s="1">
+        <v>499</v>
+      </c>
+      <c r="H148" s="1">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="2">
+        <v>10230</v>
+      </c>
+      <c r="F149" s="3">
+        <v>166</v>
+      </c>
+      <c r="G149" s="3">
+        <v>535</v>
+      </c>
+      <c r="H149" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>70</v>
+      </c>
+      <c r="E150" s="2">
+        <v>11243</v>
+      </c>
+      <c r="F150" s="3">
+        <v>183</v>
+      </c>
+      <c r="G150" s="3">
+        <v>588</v>
+      </c>
+      <c r="H150" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="5">
+        <v>11940</v>
+      </c>
+      <c r="F151" s="1">
+        <v>195</v>
+      </c>
+      <c r="G151" s="1">
+        <v>624</v>
+      </c>
+      <c r="H151" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>80</v>
+      </c>
+      <c r="E152" s="5">
+        <v>12965</v>
+      </c>
+      <c r="F152" s="1">
+        <v>211</v>
+      </c>
+      <c r="G152" s="1">
+        <v>678</v>
+      </c>
+      <c r="H152" s="1">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>976</v>
+      </c>
+      <c r="F156" s="3">
+        <v>19</v>
+      </c>
+      <c r="G156" s="3">
+        <v>66</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>20</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2506</v>
+      </c>
+      <c r="F157" s="3">
+        <v>48</v>
+      </c>
+      <c r="G157" s="3">
+        <v>171</v>
+      </c>
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="5">
+        <v>3235</v>
+      </c>
+      <c r="F158" s="1">
+        <v>62</v>
+      </c>
+      <c r="G158" s="1">
+        <v>220</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>40</v>
+      </c>
+      <c r="E159" s="5">
+        <v>4846</v>
+      </c>
+      <c r="F159" s="1">
+        <v>93</v>
+      </c>
+      <c r="G159" s="1">
+        <v>330</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="2">
+        <v>5364</v>
+      </c>
+      <c r="F160" s="3">
+        <v>103</v>
+      </c>
+      <c r="G160" s="3">
+        <v>365</v>
+      </c>
+      <c r="H160" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>50</v>
+      </c>
+      <c r="E161" s="2">
+        <v>6170</v>
+      </c>
+      <c r="F161" s="3">
+        <v>118</v>
+      </c>
+      <c r="G161" s="3">
+        <v>420</v>
+      </c>
+      <c r="H161" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="5">
+        <v>6860</v>
+      </c>
+      <c r="F162" s="1">
+        <v>131</v>
+      </c>
+      <c r="G162" s="1">
+        <v>467</v>
+      </c>
+      <c r="H162" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>60</v>
+      </c>
+      <c r="E163" s="5">
+        <v>7666</v>
+      </c>
+      <c r="F163" s="1">
+        <v>147</v>
+      </c>
+      <c r="G163" s="1">
+        <v>522</v>
+      </c>
+      <c r="H163" s="1">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="2">
+        <v>8184</v>
+      </c>
+      <c r="F164" s="3">
+        <v>156</v>
+      </c>
+      <c r="G164" s="3">
+        <v>557</v>
+      </c>
+      <c r="H164" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>70</v>
+      </c>
+      <c r="E165" s="2">
+        <v>8990</v>
+      </c>
+      <c r="F165" s="3">
+        <v>172</v>
+      </c>
+      <c r="G165" s="3">
+        <v>612</v>
+      </c>
+      <c r="H165" s="3">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="5">
+        <v>9508</v>
+      </c>
+      <c r="F166" s="1">
+        <v>181</v>
+      </c>
+      <c r="G166" s="1">
+        <v>647</v>
+      </c>
+      <c r="H166" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>80</v>
+      </c>
+      <c r="E167" s="5">
+        <v>10312</v>
+      </c>
+      <c r="F167" s="1">
+        <v>196</v>
+      </c>
+      <c r="G167" s="1">
+        <v>702</v>
+      </c>
+      <c r="H167" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>6</v>
+      </c>
+      <c r="H170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>983</v>
+      </c>
+      <c r="F171" s="3">
+        <v>26</v>
+      </c>
+      <c r="G171" s="3">
+        <v>63</v>
+      </c>
+      <c r="H171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="E172" s="2">
+        <v>2634</v>
+      </c>
+      <c r="F172" s="3">
+        <v>66</v>
+      </c>
+      <c r="G172" s="3">
+        <v>162</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="5">
+        <v>3512</v>
+      </c>
+      <c r="F173" s="1">
+        <v>88</v>
+      </c>
+      <c r="G173" s="1">
+        <v>215</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C174">
+        <v>40</v>
+      </c>
+      <c r="E174" s="5">
+        <v>5268</v>
+      </c>
+      <c r="F174" s="1">
+        <v>130</v>
+      </c>
+      <c r="G174" s="1">
+        <v>321</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="2">
+        <v>5889</v>
+      </c>
+      <c r="F175" s="3">
+        <v>145</v>
+      </c>
+      <c r="G175" s="3">
+        <v>359</v>
+      </c>
+      <c r="H175" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>50</v>
+      </c>
+      <c r="E176" s="2">
+        <v>6776</v>
+      </c>
+      <c r="F176" s="3">
+        <v>167</v>
+      </c>
+      <c r="G176" s="3">
+        <v>413</v>
+      </c>
+      <c r="H176" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="5">
+        <v>7604</v>
+      </c>
+      <c r="F177" s="1">
+        <v>188</v>
+      </c>
+      <c r="G177" s="1">
+        <v>464</v>
+      </c>
+      <c r="H177" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>60</v>
+      </c>
+      <c r="E178" s="5">
+        <v>8500</v>
+      </c>
+      <c r="F178" s="1">
+        <v>209</v>
+      </c>
+      <c r="G178" s="1">
+        <v>519</v>
+      </c>
+      <c r="H178" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="2">
+        <v>9121</v>
+      </c>
+      <c r="F179" s="3">
+        <v>225</v>
+      </c>
+      <c r="G179" s="3">
+        <v>556</v>
+      </c>
+      <c r="H179" s="3">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>70</v>
+      </c>
+      <c r="E180" s="2">
+        <v>10025</v>
+      </c>
+      <c r="F180" s="3">
+        <v>247</v>
+      </c>
+      <c r="G180" s="3">
+        <v>612</v>
+      </c>
+      <c r="H180" s="3">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="5">
+        <v>10647</v>
+      </c>
+      <c r="F181" s="1">
+        <v>262</v>
+      </c>
+      <c r="G181" s="1">
+        <v>649</v>
+      </c>
+      <c r="H181" s="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>80</v>
+      </c>
+      <c r="E182" s="5">
+        <v>11561</v>
+      </c>
+      <c r="F182" s="1">
+        <v>285</v>
+      </c>
+      <c r="G182" s="1">
+        <v>705</v>
+      </c>
+      <c r="H182" s="1">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>6</v>
+      </c>
+      <c r="H185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3">
+        <v>801</v>
+      </c>
+      <c r="F186" s="3">
+        <v>24</v>
+      </c>
+      <c r="G186" s="3">
+        <v>48</v>
+      </c>
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="E187" s="2">
+        <v>2077</v>
+      </c>
+      <c r="F187" s="3">
+        <v>63</v>
+      </c>
+      <c r="G187" s="3">
+        <v>124</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="5">
+        <v>2764</v>
+      </c>
+      <c r="F188" s="1">
+        <v>84</v>
+      </c>
+      <c r="G188" s="1">
+        <v>165</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>40</v>
+      </c>
+      <c r="E189" s="5">
+        <v>4136</v>
+      </c>
+      <c r="F189" s="1">
+        <v>125</v>
+      </c>
+      <c r="G189" s="1">
+        <v>247</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="2">
+        <v>4623</v>
+      </c>
+      <c r="F190" s="3">
+        <v>140</v>
+      </c>
+      <c r="G190" s="3">
+        <v>276</v>
+      </c>
+      <c r="H190" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>50</v>
+      </c>
+      <c r="E191" s="2">
+        <v>5319</v>
+      </c>
+      <c r="F191" s="3">
+        <v>161</v>
+      </c>
+      <c r="G191" s="3">
+        <v>318</v>
+      </c>
+      <c r="H191" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="5">
+        <v>5970</v>
+      </c>
+      <c r="F192" s="1">
+        <v>181</v>
+      </c>
+      <c r="G192" s="1">
+        <v>357</v>
+      </c>
+      <c r="H192" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>60</v>
+      </c>
+      <c r="E193" s="5">
+        <v>6673</v>
+      </c>
+      <c r="F193" s="1">
+        <v>202</v>
+      </c>
+      <c r="G193" s="1">
+        <v>399</v>
+      </c>
+      <c r="H193" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="2">
+        <v>7161</v>
+      </c>
+      <c r="F194" s="3">
+        <v>217</v>
+      </c>
+      <c r="G194" s="3">
+        <v>428</v>
+      </c>
+      <c r="H194" s="3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>70</v>
+      </c>
+      <c r="E195" s="2">
+        <v>7870</v>
+      </c>
+      <c r="F195" s="3">
+        <v>238</v>
+      </c>
+      <c r="G195" s="3">
+        <v>470</v>
+      </c>
+      <c r="H195" s="3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="5">
+        <v>8358</v>
+      </c>
+      <c r="F196" s="1">
+        <v>253</v>
+      </c>
+      <c r="G196" s="1">
+        <v>500</v>
+      </c>
+      <c r="H196" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>80</v>
+      </c>
+      <c r="E197" s="5">
+        <v>9076</v>
+      </c>
+      <c r="F197" s="1">
+        <v>274</v>
+      </c>
+      <c r="G197" s="1">
+        <v>542</v>
+      </c>
+      <c r="H197" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>5</v>
+      </c>
+      <c r="G200" t="s">
+        <v>6</v>
+      </c>
+      <c r="H200" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="E201" s="3">
+        <v>802</v>
+      </c>
+      <c r="F201" s="3">
+        <v>20</v>
+      </c>
+      <c r="G201" s="3">
+        <v>48</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>20</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2061</v>
+      </c>
+      <c r="F202" s="3">
+        <v>50</v>
+      </c>
+      <c r="G202" s="3">
+        <v>123</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="5">
+        <v>2661</v>
+      </c>
+      <c r="F203" s="1">
+        <v>65</v>
+      </c>
+      <c r="G203" s="1">
+        <v>159</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>40</v>
+      </c>
+      <c r="E204" s="5">
+        <v>3985</v>
+      </c>
+      <c r="F204" s="1">
+        <v>96</v>
+      </c>
+      <c r="G204" s="1">
+        <v>239</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="2">
+        <v>4411</v>
+      </c>
+      <c r="F205" s="3">
+        <v>107</v>
+      </c>
+      <c r="G205" s="3">
+        <v>264</v>
+      </c>
+      <c r="H205" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C206">
+        <v>50</v>
+      </c>
+      <c r="E206" s="2">
+        <v>5074</v>
+      </c>
+      <c r="F206" s="3">
+        <v>123</v>
+      </c>
+      <c r="G206" s="3">
+        <v>304</v>
+      </c>
+      <c r="H206" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="5">
+        <v>5642</v>
+      </c>
+      <c r="F207" s="1">
+        <v>137</v>
+      </c>
+      <c r="G207" s="1">
+        <v>338</v>
+      </c>
+      <c r="H207" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C208">
+        <v>60</v>
+      </c>
+      <c r="E208" s="5">
+        <v>6305</v>
+      </c>
+      <c r="F208" s="1">
+        <v>153</v>
+      </c>
+      <c r="G208" s="1">
+        <v>378</v>
+      </c>
+      <c r="H208" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="2">
+        <v>6730</v>
+      </c>
+      <c r="F209" s="3">
+        <v>164</v>
+      </c>
+      <c r="G209" s="3">
+        <v>403</v>
+      </c>
+      <c r="H209" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C210">
+        <v>70</v>
+      </c>
+      <c r="E210" s="2">
+        <v>7393</v>
+      </c>
+      <c r="F210" s="3">
+        <v>180</v>
+      </c>
+      <c r="G210" s="3">
+        <v>443</v>
+      </c>
+      <c r="H210" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="5">
+        <v>7818</v>
+      </c>
+      <c r="F211" s="1">
+        <v>191</v>
+      </c>
+      <c r="G211" s="1">
+        <v>468</v>
+      </c>
+      <c r="H211" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C212">
+        <v>80</v>
+      </c>
+      <c r="E212" s="5">
+        <v>8481</v>
+      </c>
+      <c r="F212" s="1">
+        <v>207</v>
+      </c>
+      <c r="G212" s="1">
+        <v>508</v>
+      </c>
+      <c r="H212" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" t="s">
+        <v>4</v>
+      </c>
+      <c r="F215" t="s">
+        <v>5</v>
+      </c>
+      <c r="G215" t="s">
+        <v>6</v>
+      </c>
+      <c r="H215" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="E216" s="3">
+        <v>810</v>
+      </c>
+      <c r="F216" s="3">
+        <v>46</v>
+      </c>
+      <c r="G216" s="3">
+        <v>51</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>20</v>
+      </c>
+      <c r="E217" s="2">
+        <v>2102</v>
+      </c>
+      <c r="F217" s="3">
+        <v>58</v>
+      </c>
+      <c r="G217" s="3">
+        <v>132</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" s="5">
+        <v>2797</v>
+      </c>
+      <c r="F218" s="1">
+        <v>77</v>
+      </c>
+      <c r="G218" s="1">
+        <v>176</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>40</v>
+      </c>
+      <c r="E219" s="5">
+        <v>4185</v>
+      </c>
+      <c r="F219" s="1">
+        <v>116</v>
+      </c>
+      <c r="G219" s="1">
+        <v>263</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="2">
+        <v>4678</v>
+      </c>
+      <c r="F220" s="3">
+        <v>129</v>
+      </c>
+      <c r="G220" s="3">
+        <v>294</v>
+      </c>
+      <c r="H220" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>50</v>
+      </c>
+      <c r="E221" s="2">
+        <v>5383</v>
+      </c>
+      <c r="F221" s="3">
+        <v>149</v>
+      </c>
+      <c r="G221" s="3">
+        <v>338</v>
+      </c>
+      <c r="H221" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" s="5">
+        <v>6041</v>
+      </c>
+      <c r="F222" s="1">
+        <v>167</v>
+      </c>
+      <c r="G222" s="1">
+        <v>379</v>
+      </c>
+      <c r="H222" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>60</v>
+      </c>
+      <c r="E223" s="5">
+        <v>6752</v>
+      </c>
+      <c r="F223" s="1">
+        <v>186</v>
+      </c>
+      <c r="G223" s="1">
+        <v>424</v>
+      </c>
+      <c r="H223" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" s="2">
+        <v>7246</v>
+      </c>
+      <c r="F224" s="3">
+        <v>199</v>
+      </c>
+      <c r="G224" s="3">
+        <v>455</v>
+      </c>
+      <c r="H224" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>70</v>
+      </c>
+      <c r="E225" s="2">
+        <v>7964</v>
+      </c>
+      <c r="F225" s="3">
+        <v>219</v>
+      </c>
+      <c r="G225" s="3">
+        <v>500</v>
+      </c>
+      <c r="H225" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="5">
+        <v>8458</v>
+      </c>
+      <c r="F226" s="1">
+        <v>233</v>
+      </c>
+      <c r="G226" s="1">
+        <v>531</v>
+      </c>
+      <c r="H226" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>80</v>
+      </c>
+      <c r="E227" s="5">
+        <v>9184</v>
+      </c>
+      <c r="F227" s="1">
+        <v>253</v>
+      </c>
+      <c r="G227" s="1">
+        <v>576</v>
+      </c>
+      <c r="H227" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>4</v>
+      </c>
+      <c r="F230" t="s">
+        <v>5</v>
+      </c>
+      <c r="G230" t="s">
+        <v>6</v>
+      </c>
+      <c r="H230" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="E231" s="3">
+        <v>821</v>
+      </c>
+      <c r="F231" s="3">
+        <v>18</v>
+      </c>
+      <c r="G231" s="3">
+        <v>48</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>20</v>
+      </c>
+      <c r="E232" s="2">
+        <v>2108</v>
+      </c>
+      <c r="F232" s="3">
+        <v>46</v>
+      </c>
+      <c r="G232" s="3">
+        <v>123</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="5">
+        <v>2721</v>
+      </c>
+      <c r="F233" s="1">
+        <v>59</v>
+      </c>
+      <c r="G233" s="1">
+        <v>159</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>40</v>
+      </c>
+      <c r="E234" s="5">
+        <v>4076</v>
+      </c>
+      <c r="F234" s="1">
+        <v>89</v>
+      </c>
+      <c r="G234" s="1">
+        <v>239</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="2">
+        <v>4512</v>
+      </c>
+      <c r="F235" s="3">
+        <v>98</v>
+      </c>
+      <c r="G235" s="3">
+        <v>264</v>
+      </c>
+      <c r="H235" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>50</v>
+      </c>
+      <c r="E236" s="2">
+        <v>5189</v>
+      </c>
+      <c r="F236" s="3">
+        <v>112</v>
+      </c>
+      <c r="G236" s="3">
+        <v>304</v>
+      </c>
+      <c r="H236" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" s="5">
+        <v>5770</v>
+      </c>
+      <c r="F237" s="1">
+        <v>125</v>
+      </c>
+      <c r="G237" s="1">
+        <v>338</v>
+      </c>
+      <c r="H237" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>60</v>
+      </c>
+      <c r="E238" s="5">
+        <v>6448</v>
+      </c>
+      <c r="F238" s="1">
+        <v>140</v>
+      </c>
+      <c r="G238" s="1">
+        <v>378</v>
+      </c>
+      <c r="H238" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="2">
+        <v>6884</v>
+      </c>
+      <c r="F239" s="3">
+        <v>150</v>
+      </c>
+      <c r="G239" s="3">
+        <v>403</v>
+      </c>
+      <c r="H239" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>70</v>
+      </c>
+      <c r="E240" s="2">
+        <v>7561</v>
+      </c>
+      <c r="F240" s="3">
+        <v>164</v>
+      </c>
+      <c r="G240" s="3">
+        <v>443</v>
+      </c>
+      <c r="H240" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="5">
+        <v>7996</v>
+      </c>
+      <c r="F241" s="1">
+        <v>173</v>
+      </c>
+      <c r="G241" s="1">
+        <v>468</v>
+      </c>
+      <c r="H241" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>80</v>
+      </c>
+      <c r="E242" s="5">
+        <v>8674</v>
+      </c>
+      <c r="F242" s="1">
+        <v>188</v>
+      </c>
+      <c r="G242" s="1">
+        <v>508</v>
+      </c>
+      <c r="H242" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" t="s">
+        <v>6</v>
+      </c>
+      <c r="H245" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="E246" s="2">
+        <v>1012</v>
+      </c>
+      <c r="F246" s="3">
+        <v>16</v>
+      </c>
+      <c r="G246" s="3">
+        <v>67</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>20</v>
+      </c>
+      <c r="E247" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F247" s="3">
+        <v>41</v>
+      </c>
+      <c r="G247" s="3">
+        <v>172</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" s="5">
+        <v>3356</v>
+      </c>
+      <c r="F248" s="1">
+        <v>53</v>
+      </c>
+      <c r="G248" s="1">
+        <v>222</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>40</v>
+      </c>
+      <c r="E249" s="5">
+        <v>5027</v>
+      </c>
+      <c r="F249" s="1">
+        <v>80</v>
+      </c>
+      <c r="G249" s="1">
+        <v>333</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="2">
+        <v>5564</v>
+      </c>
+      <c r="F250" s="3">
+        <v>88</v>
+      </c>
+      <c r="G250" s="3">
+        <v>368</v>
+      </c>
+      <c r="H250" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>50</v>
+      </c>
+      <c r="E251" s="2">
+        <v>6400</v>
+      </c>
+      <c r="F251" s="3">
+        <v>102</v>
+      </c>
+      <c r="G251" s="3">
+        <v>423</v>
+      </c>
+      <c r="H251" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="5">
+        <v>7117</v>
+      </c>
+      <c r="F252" s="1">
+        <v>113</v>
+      </c>
+      <c r="G252" s="1">
+        <v>471</v>
+      </c>
+      <c r="H252" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>60</v>
+      </c>
+      <c r="E253" s="5">
+        <v>7953</v>
+      </c>
+      <c r="F253" s="1">
+        <v>126</v>
+      </c>
+      <c r="G253" s="1">
+        <v>526</v>
+      </c>
+      <c r="H253" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" s="2">
+        <v>8490</v>
+      </c>
+      <c r="F254" s="3">
+        <v>135</v>
+      </c>
+      <c r="G254" s="3">
+        <v>562</v>
+      </c>
+      <c r="H254" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>70</v>
+      </c>
+      <c r="E255" s="2">
+        <v>9325</v>
+      </c>
+      <c r="F255" s="3">
+        <v>148</v>
+      </c>
+      <c r="G255" s="3">
+        <v>617</v>
+      </c>
+      <c r="H255" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="5">
+        <v>9862</v>
+      </c>
+      <c r="F256" s="1">
+        <v>156</v>
+      </c>
+      <c r="G256" s="1">
+        <v>652</v>
+      </c>
+      <c r="H256" s="8">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>80</v>
+      </c>
+      <c r="E257" s="5">
+        <v>10698</v>
+      </c>
+      <c r="F257" s="1">
+        <v>170</v>
+      </c>
+      <c r="G257" s="1">
+        <v>708</v>
+      </c>
+      <c r="H257" s="8">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>4</v>
+      </c>
+      <c r="F260" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" t="s">
+        <v>6</v>
+      </c>
+      <c r="H260" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="E261" s="3">
+        <v>963</v>
+      </c>
+      <c r="F261" s="3">
+        <v>23</v>
+      </c>
+      <c r="G261" s="3">
+        <v>72</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C262">
+        <v>20</v>
+      </c>
+      <c r="E262" s="2">
+        <v>2498</v>
+      </c>
+      <c r="F262" s="3">
+        <v>58</v>
+      </c>
+      <c r="G262" s="3">
+        <v>186</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="5">
+        <v>3323</v>
+      </c>
+      <c r="F263" s="1">
+        <v>77</v>
+      </c>
+      <c r="G263" s="1">
+        <v>248</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>40</v>
+      </c>
+      <c r="E264" s="5">
+        <v>4973</v>
+      </c>
+      <c r="F264" s="1">
+        <v>115</v>
+      </c>
+      <c r="G264" s="1">
+        <v>371</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" s="2">
+        <v>5559</v>
+      </c>
+      <c r="F265" s="3">
+        <v>129</v>
+      </c>
+      <c r="G265" s="3">
+        <v>415</v>
+      </c>
+      <c r="H265" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>50</v>
+      </c>
+      <c r="E266" s="2">
+        <v>6396</v>
+      </c>
+      <c r="F266" s="3">
+        <v>149</v>
+      </c>
+      <c r="G266" s="3">
+        <v>477</v>
+      </c>
+      <c r="H266" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="E267" s="5">
+        <v>7178</v>
+      </c>
+      <c r="F267" s="1">
+        <v>167</v>
+      </c>
+      <c r="G267" s="1">
+        <v>535</v>
+      </c>
+      <c r="H267" s="8">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>60</v>
+      </c>
+      <c r="E268" s="5">
+        <v>8023</v>
+      </c>
+      <c r="F268" s="1">
+        <v>186</v>
+      </c>
+      <c r="G268" s="1">
+        <v>598</v>
+      </c>
+      <c r="H268" s="8">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" s="2">
+        <v>8610</v>
+      </c>
+      <c r="F269" s="3">
+        <v>200</v>
+      </c>
+      <c r="G269" s="3">
+        <v>642</v>
+      </c>
+      <c r="H269" s="7">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>70</v>
+      </c>
+      <c r="E270" s="2">
+        <v>9463</v>
+      </c>
+      <c r="F270" s="3">
+        <v>219</v>
+      </c>
+      <c r="G270" s="3">
+        <v>706</v>
+      </c>
+      <c r="H270" s="7">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="5">
+        <v>10050</v>
+      </c>
+      <c r="F271" s="1">
+        <v>233</v>
+      </c>
+      <c r="G271" s="1">
+        <v>749</v>
+      </c>
+      <c r="H271" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>80</v>
+      </c>
+      <c r="E272" s="5">
+        <v>10912</v>
+      </c>
+      <c r="F272" s="1">
+        <v>253</v>
+      </c>
+      <c r="G272" s="1">
+        <v>814</v>
+      </c>
+      <c r="H272" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" t="s">
+        <v>4</v>
+      </c>
+      <c r="F275" t="s">
+        <v>5</v>
+      </c>
+      <c r="G275" t="s">
+        <v>6</v>
+      </c>
+      <c r="H275" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="E276" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F276" s="3">
+        <v>20</v>
+      </c>
+      <c r="G276" s="3">
+        <v>63</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>20</v>
+      </c>
+      <c r="E277" s="2">
+        <v>2577</v>
+      </c>
+      <c r="F277" s="3">
+        <v>51</v>
+      </c>
+      <c r="G277" s="3">
+        <v>162</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="5">
+        <v>3326</v>
+      </c>
+      <c r="F278" s="1">
+        <v>65</v>
+      </c>
+      <c r="G278" s="1">
+        <v>209</v>
+      </c>
+      <c r="H278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>40</v>
+      </c>
+      <c r="E279" s="5">
+        <v>4982</v>
+      </c>
+      <c r="F279" s="1">
+        <v>97</v>
+      </c>
+      <c r="G279" s="1">
+        <v>313</v>
+      </c>
+      <c r="H279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="2">
+        <v>5514</v>
+      </c>
+      <c r="F280" s="3">
+        <v>108</v>
+      </c>
+      <c r="G280" s="3">
+        <v>346</v>
+      </c>
+      <c r="H280" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>50</v>
+      </c>
+      <c r="E281" s="2">
+        <v>6343</v>
+      </c>
+      <c r="F281" s="3">
+        <v>124</v>
+      </c>
+      <c r="G281" s="3">
+        <v>398</v>
+      </c>
+      <c r="H281" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="E282" s="5">
+        <v>7052</v>
+      </c>
+      <c r="F282" s="1">
+        <v>138</v>
+      </c>
+      <c r="G282" s="1">
+        <v>443</v>
+      </c>
+      <c r="H282" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>60</v>
+      </c>
+      <c r="E283" s="5">
+        <v>7881</v>
+      </c>
+      <c r="F283" s="1">
+        <v>154</v>
+      </c>
+      <c r="G283" s="1">
+        <v>495</v>
+      </c>
+      <c r="H283" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="2">
+        <v>8413</v>
+      </c>
+      <c r="F284" s="3">
+        <v>164</v>
+      </c>
+      <c r="G284" s="3">
+        <v>528</v>
+      </c>
+      <c r="H284" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>70</v>
+      </c>
+      <c r="E285" s="2">
+        <v>9241</v>
+      </c>
+      <c r="F285" s="3">
+        <v>180</v>
+      </c>
+      <c r="G285" s="3">
+        <v>580</v>
+      </c>
+      <c r="H285" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" s="5">
+        <v>9773</v>
+      </c>
+      <c r="F286" s="1">
+        <v>191</v>
+      </c>
+      <c r="G286" s="1">
+        <v>613</v>
+      </c>
+      <c r="H286" s="8">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>80</v>
+      </c>
+      <c r="E287" s="5">
+        <v>10602</v>
+      </c>
+      <c r="F287" s="1">
+        <v>207</v>
+      </c>
+      <c r="G287" s="1">
+        <v>665</v>
+      </c>
+      <c r="H287" s="8">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>3</v>
+      </c>
+      <c r="E290" t="s">
+        <v>4</v>
+      </c>
+      <c r="F290" t="s">
+        <v>5</v>
+      </c>
+      <c r="G290" t="s">
+        <v>6</v>
+      </c>
+      <c r="H290" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="E291" s="3">
+        <v>775</v>
+      </c>
+      <c r="F291" s="3">
+        <v>14</v>
+      </c>
+      <c r="G291" s="3">
+        <v>59</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>20</v>
+      </c>
+      <c r="E292" s="2">
+        <v>1991</v>
+      </c>
+      <c r="F292" s="3">
+        <v>37</v>
+      </c>
+      <c r="G292" s="3">
+        <v>151</v>
+      </c>
+      <c r="H292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="5">
+        <v>2570</v>
+      </c>
+      <c r="F293" s="1">
+        <v>47</v>
+      </c>
+      <c r="G293" s="1">
+        <v>195</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>40</v>
+      </c>
+      <c r="E294" s="5">
+        <v>3850</v>
+      </c>
+      <c r="F294" s="1">
+        <v>71</v>
+      </c>
+      <c r="G294" s="1">
+        <v>293</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" s="2">
+        <v>4261</v>
+      </c>
+      <c r="F295" s="3">
+        <v>79</v>
+      </c>
+      <c r="G295" s="3">
+        <v>324</v>
+      </c>
+      <c r="H295" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>50</v>
+      </c>
+      <c r="E296" s="2">
+        <v>4901</v>
+      </c>
+      <c r="F296" s="3">
+        <v>90</v>
+      </c>
+      <c r="G296" s="3">
+        <v>373</v>
+      </c>
+      <c r="H296" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" s="5">
+        <v>5450</v>
+      </c>
+      <c r="F297" s="1">
+        <v>100</v>
+      </c>
+      <c r="G297" s="1">
+        <v>414</v>
+      </c>
+      <c r="H297" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>60</v>
+      </c>
+      <c r="E298" s="5">
+        <v>6090</v>
+      </c>
+      <c r="F298" s="1">
+        <v>112</v>
+      </c>
+      <c r="G298" s="1">
+        <v>463</v>
+      </c>
+      <c r="H298" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" s="2">
+        <v>6501</v>
+      </c>
+      <c r="F299" s="3">
+        <v>120</v>
+      </c>
+      <c r="G299" s="3">
+        <v>494</v>
+      </c>
+      <c r="H299" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>70</v>
+      </c>
+      <c r="E300" s="2">
+        <v>7141</v>
+      </c>
+      <c r="F300" s="3">
+        <v>132</v>
+      </c>
+      <c r="G300" s="3">
+        <v>543</v>
+      </c>
+      <c r="H300" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="E301" s="5">
+        <v>7552</v>
+      </c>
+      <c r="F301" s="1">
+        <v>139</v>
+      </c>
+      <c r="G301" s="1">
+        <v>574</v>
+      </c>
+      <c r="H301" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C302">
+        <v>80</v>
+      </c>
+      <c r="E302" s="5">
+        <v>8192</v>
+      </c>
+      <c r="F302" s="1">
+        <v>151</v>
+      </c>
+      <c r="G302" s="1">
+        <v>623</v>
+      </c>
+      <c r="H302" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+      <c r="E305" t="s">
+        <v>4</v>
+      </c>
+      <c r="F305" t="s">
+        <v>5</v>
+      </c>
+      <c r="G305" t="s">
+        <v>6</v>
+      </c>
+      <c r="H305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="E306" s="3">
+        <v>912</v>
+      </c>
+      <c r="F306" s="3">
+        <v>18</v>
+      </c>
+      <c r="G306" s="3">
+        <v>57</v>
+      </c>
+      <c r="H306" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>20</v>
+      </c>
+      <c r="E307" s="2">
+        <v>2342</v>
+      </c>
+      <c r="F307" s="3">
+        <v>46</v>
+      </c>
+      <c r="G307" s="3">
+        <v>147</v>
+      </c>
+      <c r="H307" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="5">
+        <v>3024</v>
+      </c>
+      <c r="F308" s="1">
+        <v>60</v>
+      </c>
+      <c r="G308" s="1">
+        <v>190</v>
+      </c>
+      <c r="H308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>40</v>
+      </c>
+      <c r="E309" s="5">
+        <v>4529</v>
+      </c>
+      <c r="F309" s="1">
+        <v>88</v>
+      </c>
+      <c r="G309" s="1">
+        <v>284</v>
+      </c>
+      <c r="H309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" s="2">
+        <v>5013</v>
+      </c>
+      <c r="F310" s="3">
+        <v>98</v>
+      </c>
+      <c r="G310" s="3">
+        <v>315</v>
+      </c>
+      <c r="H310" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>50</v>
+      </c>
+      <c r="E311" s="2">
+        <v>5766</v>
+      </c>
+      <c r="F311" s="3">
+        <v>112</v>
+      </c>
+      <c r="G311" s="3">
+        <v>362</v>
+      </c>
+      <c r="H311" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>10</v>
+      </c>
+      <c r="E312" s="5">
+        <v>6411</v>
+      </c>
+      <c r="F312" s="1">
+        <v>126</v>
+      </c>
+      <c r="G312" s="1">
+        <v>405</v>
+      </c>
+      <c r="H312" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>60</v>
+      </c>
+      <c r="E313" s="5">
+        <v>7164</v>
+      </c>
+      <c r="F313" s="1">
+        <v>140</v>
+      </c>
+      <c r="G313" s="1">
+        <v>450</v>
+      </c>
+      <c r="H313" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" s="2">
+        <v>7648</v>
+      </c>
+      <c r="F314" s="3">
+        <v>149</v>
+      </c>
+      <c r="G314" s="3">
+        <v>480</v>
+      </c>
+      <c r="H314" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>70</v>
+      </c>
+      <c r="E315" s="2">
+        <v>8401</v>
+      </c>
+      <c r="F315" s="3">
+        <v>164</v>
+      </c>
+      <c r="G315" s="3">
+        <v>527</v>
+      </c>
+      <c r="H315" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316" s="5">
+        <v>8885</v>
+      </c>
+      <c r="F316" s="1">
+        <v>174</v>
+      </c>
+      <c r="G316" s="1">
+        <v>558</v>
+      </c>
+      <c r="H316" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>80</v>
+      </c>
+      <c r="E317" s="5">
+        <v>9638</v>
+      </c>
+      <c r="F317" s="1">
+        <v>188</v>
+      </c>
+      <c r="G317" s="1">
+        <v>605</v>
+      </c>
+      <c r="H317" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C320" t="s">
+        <v>3</v>
+      </c>
+      <c r="E320" t="s">
+        <v>4</v>
+      </c>
+      <c r="F320" t="s">
+        <v>5</v>
+      </c>
+      <c r="G320" t="s">
+        <v>6</v>
+      </c>
+      <c r="H320" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="321" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="E321" s="3">
+        <v>820</v>
+      </c>
+      <c r="F321" s="3">
+        <v>21</v>
+      </c>
+      <c r="G321" s="3">
+        <v>52</v>
+      </c>
+      <c r="H321" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>20</v>
+      </c>
+      <c r="E322" s="2">
+        <v>2127</v>
+      </c>
+      <c r="F322" s="3">
+        <v>53</v>
+      </c>
+      <c r="G322" s="3">
+        <v>135</v>
+      </c>
+      <c r="H322" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" s="5">
+        <v>2830</v>
+      </c>
+      <c r="F323" s="1">
+        <v>71</v>
+      </c>
+      <c r="G323" s="1">
+        <v>180</v>
+      </c>
+      <c r="H323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>40</v>
+      </c>
+      <c r="E324" s="5">
+        <v>4234</v>
+      </c>
+      <c r="F324" s="1">
+        <v>106</v>
+      </c>
+      <c r="G324" s="1">
+        <v>269</v>
+      </c>
+      <c r="H324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2">
+        <v>4734</v>
+      </c>
+      <c r="F325" s="3">
+        <v>118</v>
+      </c>
+      <c r="G325" s="3">
+        <v>301</v>
+      </c>
+      <c r="H325" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C326">
+        <v>50</v>
+      </c>
+      <c r="E326" s="2">
+        <v>5446</v>
+      </c>
+      <c r="F326" s="3">
+        <v>136</v>
+      </c>
+      <c r="G326" s="3">
+        <v>346</v>
+      </c>
+      <c r="H326" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C327" t="s">
+        <v>10</v>
+      </c>
+      <c r="E327" s="5">
+        <v>6112</v>
+      </c>
+      <c r="F327" s="1">
+        <v>153</v>
+      </c>
+      <c r="G327" s="1">
+        <v>388</v>
+      </c>
+      <c r="H327" s="6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C328">
+        <v>60</v>
+      </c>
+      <c r="E328" s="5">
+        <v>6832</v>
+      </c>
+      <c r="F328" s="1">
+        <v>170</v>
+      </c>
+      <c r="G328" s="1">
+        <v>434</v>
+      </c>
+      <c r="H328" s="6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="329" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" s="2">
+        <v>7331</v>
+      </c>
+      <c r="F329" s="3">
+        <v>183</v>
+      </c>
+      <c r="G329" s="3">
+        <v>465</v>
+      </c>
+      <c r="H329" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="330" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>70</v>
+      </c>
+      <c r="E330" s="2">
+        <v>8058</v>
+      </c>
+      <c r="F330" s="3">
+        <v>202</v>
+      </c>
+      <c r="G330" s="3">
+        <v>512</v>
+      </c>
+      <c r="H330" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" s="5">
+        <v>8557</v>
+      </c>
+      <c r="F331" s="1">
+        <v>214</v>
+      </c>
+      <c r="G331" s="1">
+        <v>543</v>
+      </c>
+      <c r="H331" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="332" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C332">
+        <v>80</v>
+      </c>
+      <c r="E332" s="5">
+        <v>9291</v>
+      </c>
+      <c r="F332" s="1">
+        <v>233</v>
+      </c>
+      <c r="G332" s="1">
+        <v>591</v>
+      </c>
+      <c r="H332" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C335" t="s">
+        <v>3</v>
+      </c>
+      <c r="E335" t="s">
+        <v>4</v>
+      </c>
+      <c r="F335" t="s">
+        <v>5</v>
+      </c>
+      <c r="G335" t="s">
+        <v>6</v>
+      </c>
+      <c r="H335" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="E336" s="3">
+        <v>912</v>
+      </c>
+      <c r="F336" s="3">
+        <v>19</v>
+      </c>
+      <c r="G336" s="3">
+        <v>56</v>
+      </c>
+      <c r="H336" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>20</v>
+      </c>
+      <c r="E337" s="2">
+        <v>2342</v>
+      </c>
+      <c r="F337" s="3">
+        <v>49</v>
+      </c>
+      <c r="G337" s="3">
+        <v>144</v>
+      </c>
+      <c r="H337" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C338" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="5">
+        <v>3024</v>
+      </c>
+      <c r="F338" s="1">
+        <v>63</v>
+      </c>
+      <c r="G338" s="1">
+        <v>186</v>
+      </c>
+      <c r="H338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>40</v>
+      </c>
+      <c r="E339" s="5">
+        <v>4529</v>
+      </c>
+      <c r="F339" s="1">
+        <v>94</v>
+      </c>
+      <c r="G339" s="1">
+        <v>279</v>
+      </c>
+      <c r="H339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" s="2">
+        <v>5013</v>
+      </c>
+      <c r="F340" s="3">
+        <v>104</v>
+      </c>
+      <c r="G340" s="3">
+        <v>308</v>
+      </c>
+      <c r="H340" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C341">
+        <v>50</v>
+      </c>
+      <c r="E341" s="2">
+        <v>5766</v>
+      </c>
+      <c r="F341" s="3">
+        <v>119</v>
+      </c>
+      <c r="G341" s="3">
+        <v>355</v>
+      </c>
+      <c r="H341" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="E342" s="5">
+        <v>6411</v>
+      </c>
+      <c r="F342" s="1">
+        <v>133</v>
+      </c>
+      <c r="G342" s="1">
+        <v>394</v>
+      </c>
+      <c r="H342" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>60</v>
+      </c>
+      <c r="E343" s="5">
+        <v>7164</v>
+      </c>
+      <c r="F343" s="1">
+        <v>149</v>
+      </c>
+      <c r="G343" s="1">
+        <v>441</v>
+      </c>
+      <c r="H343" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="344" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" s="2">
+        <v>7648</v>
+      </c>
+      <c r="F344" s="3">
+        <v>159</v>
+      </c>
+      <c r="G344" s="3">
+        <v>470</v>
+      </c>
+      <c r="H344" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C345">
+        <v>70</v>
+      </c>
+      <c r="E345" s="2">
+        <v>8401</v>
+      </c>
+      <c r="F345" s="3">
+        <v>174</v>
+      </c>
+      <c r="G345" s="3">
+        <v>517</v>
+      </c>
+      <c r="H345" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C346" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" s="5">
+        <v>8885</v>
+      </c>
+      <c r="F346" s="1">
+        <v>184</v>
+      </c>
+      <c r="G346" s="1">
+        <v>546</v>
+      </c>
+      <c r="H346" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C347">
+        <v>80</v>
+      </c>
+      <c r="E347" s="5">
+        <v>9638</v>
+      </c>
+      <c r="F347" s="1">
+        <v>200</v>
+      </c>
+      <c r="G347" s="1">
+        <v>593</v>
+      </c>
+      <c r="H347" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>3</v>
+      </c>
+      <c r="E350" t="s">
+        <v>4</v>
+      </c>
+      <c r="F350" t="s">
+        <v>5</v>
+      </c>
+      <c r="G350" t="s">
+        <v>6</v>
+      </c>
+      <c r="H350" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="365" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C365" t="s">
+        <v>3</v>
+      </c>
+      <c r="E365" t="s">
+        <v>4</v>
+      </c>
+      <c r="F365" t="s">
+        <v>5</v>
+      </c>
+      <c r="G365" t="s">
+        <v>6</v>
+      </c>
+      <c r="H365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="E366" s="3">
+        <v>857</v>
+      </c>
+      <c r="F366" s="3">
+        <v>17</v>
+      </c>
+      <c r="G366" s="3">
+        <v>64</v>
+      </c>
+      <c r="H366" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C367">
+        <v>20</v>
+      </c>
+      <c r="E367" s="2">
+        <v>2202</v>
+      </c>
+      <c r="F367" s="3">
+        <v>44</v>
+      </c>
+      <c r="G367" s="3">
+        <v>163</v>
+      </c>
+      <c r="H367" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C368" t="s">
+        <v>8</v>
+      </c>
+      <c r="E368" s="5">
+        <v>2842</v>
+      </c>
+      <c r="F368" s="1">
+        <v>56</v>
+      </c>
+      <c r="G368" s="1">
+        <v>211</v>
+      </c>
+      <c r="H368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C369">
+        <v>40</v>
+      </c>
+      <c r="E369" s="5">
+        <v>4257</v>
+      </c>
+      <c r="F369" s="1">
+        <v>84</v>
+      </c>
+      <c r="G369" s="1">
+        <v>316</v>
+      </c>
+      <c r="H369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370" s="2">
+        <v>4712</v>
+      </c>
+      <c r="F370" s="3">
+        <v>93</v>
+      </c>
+      <c r="G370" s="3">
+        <v>349</v>
+      </c>
+      <c r="H370" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="371" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C371">
+        <v>50</v>
+      </c>
+      <c r="E371" s="2">
+        <v>5420</v>
+      </c>
+      <c r="F371" s="3">
+        <v>107</v>
+      </c>
+      <c r="G371" s="3">
+        <v>402</v>
+      </c>
+      <c r="H371" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="372" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372" s="5">
+        <v>6027</v>
+      </c>
+      <c r="F372" s="1">
+        <v>119</v>
+      </c>
+      <c r="G372" s="1">
+        <v>447</v>
+      </c>
+      <c r="H372" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="373" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>60</v>
+      </c>
+      <c r="E373" s="5">
+        <v>6735</v>
+      </c>
+      <c r="F373" s="1">
+        <v>133</v>
+      </c>
+      <c r="G373" s="1">
+        <v>499</v>
+      </c>
+      <c r="H373" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="374" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C374" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="2">
+        <v>7190</v>
+      </c>
+      <c r="F374" s="3">
+        <v>142</v>
+      </c>
+      <c r="G374" s="3">
+        <v>533</v>
+      </c>
+      <c r="H374" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="375" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C375">
+        <v>70</v>
+      </c>
+      <c r="E375" s="2">
+        <v>7897</v>
+      </c>
+      <c r="F375" s="3">
+        <v>156</v>
+      </c>
+      <c r="G375" s="3">
+        <v>585</v>
+      </c>
+      <c r="H375" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="376" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" s="5">
+        <v>8352</v>
+      </c>
+      <c r="F376" s="1">
+        <v>165</v>
+      </c>
+      <c r="G376" s="1">
+        <v>619</v>
+      </c>
+      <c r="H376" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="377" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C377">
+        <v>80</v>
+      </c>
+      <c r="E377" s="5">
+        <v>9060</v>
+      </c>
+      <c r="F377" s="1">
+        <v>179</v>
+      </c>
+      <c r="G377" s="1">
+        <v>672</v>
+      </c>
+      <c r="H377" s="6">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M5:Y5"/>
+    <mergeCell ref="M6:Y6"/>
+    <mergeCell ref="M7:Y7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Genshin Impact Data.xlsx
+++ b/data/Genshin Impact Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeFiles\Github\cool-apps\genshin-crafting-table\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Genshin\genshin-crafting-table\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536D663-2C11-4A42-93B4-E790DEF8A518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E909607-1865-432D-8DDE-3637221E38B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{786E68F0-8863-4571-A8DF-93FEE407AF97}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="67">
   <si>
     <t>GENSHIN DATA</t>
   </si>
@@ -232,6 +223,9 @@
   </si>
   <si>
     <t>Energy Recharge: 100%</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
 </sst>
 </file>
@@ -354,13 +348,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -678,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30B7E8B-3911-4AD7-A866-39BF1884B242}">
   <dimension ref="A1:Y377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="O357" sqref="O357"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="P217" sqref="P217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,21 +727,21 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6">
@@ -765,21 +759,21 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7">
@@ -797,19 +791,19 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -909,7 +903,7 @@
       <c r="H12" s="6">
         <v>0.12</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1038,7 +1032,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="C22">
         <v>20</v>
       </c>
@@ -3869,7 +3863,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>11</v>
       </c>
@@ -3886,7 +3880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C210">
         <v>70</v>
       </c>
@@ -3903,7 +3897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>12</v>
       </c>
@@ -3920,7 +3914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C212">
         <v>80</v>
       </c>
@@ -3937,12 +3931,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +3953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C216">
         <v>1</v>
       </c>
@@ -3975,8 +3969,11 @@
       <c r="H216" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P216" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C217">
         <v>20</v>
       </c>
@@ -3993,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>8</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219">
         <v>40</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>9</v>
       </c>
@@ -4044,7 +4041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C221">
         <v>50</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>10</v>
       </c>
@@ -4078,7 +4075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C223">
         <v>60</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>11</v>
       </c>

--- a/data/Genshin Impact Data.xlsx
+++ b/data/Genshin Impact Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeFiles\Github\cool-apps\genshin-crafting-table\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536D663-2C11-4A42-93B4-E790DEF8A518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81625BF-AC1B-4009-ABAF-9F37A8F4DD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{786E68F0-8863-4571-A8DF-93FEE407AF97}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{786E68F0-8863-4571-A8DF-93FEE407AF97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="69">
   <si>
     <t>GENSHIN DATA</t>
   </si>
@@ -232,13 +232,22 @@
   </si>
   <si>
     <t>Energy Recharge: 100%</t>
+  </si>
+  <si>
+    <t>Max Stamina: 240</t>
+  </si>
+  <si>
+    <t>Max HP</t>
+  </si>
+  <si>
+    <t>(Base HP * HP% (Weapon, Artifact, Ascension)) + Flat MAX HP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +280,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -360,6 +377,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,20 +701,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30B7E8B-3911-4AD7-A866-39BF1884B242}">
-  <dimension ref="A1:Y377"/>
+  <dimension ref="A1:AB377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="O357" sqref="O357"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="E366" sqref="E366:H377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -705,19 +730,22 @@
       <c r="H3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -733,12 +761,9 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -748,8 +773,11 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -765,12 +793,9 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -780,8 +805,11 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>20</v>
       </c>
@@ -797,9 +825,6 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -810,8 +835,11 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -827,11 +855,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>40</v>
       </c>
@@ -847,16 +875,16 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>9</v>
       </c>
@@ -873,7 +901,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>50</v>
       </c>
@@ -889,11 +917,11 @@
       <c r="H11" s="4">
         <v>0.06</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -909,11 +937,11 @@
       <c r="H12" s="6">
         <v>0.12</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="P12" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>60</v>
       </c>
@@ -930,7 +958,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -946,8 +974,11 @@
       <c r="H14" s="4">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>70</v>
       </c>
@@ -963,8 +994,23 @@
       <c r="H15" s="4">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -981,7 +1027,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>80</v>
       </c>
@@ -997,13 +1043,37 @@
       <c r="H17" s="6">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O18" s="12"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>1</v>
       </c>
@@ -1037,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="C22">
         <v>20</v>
@@ -1055,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>40</v>
       </c>
@@ -1089,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>50</v>
       </c>
@@ -1123,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>60</v>
       </c>
@@ -1157,7 +1227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>70</v>
       </c>
@@ -1191,7 +1261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>80</v>
       </c>
@@ -2173,13 +2243,13 @@
         <v>20</v>
       </c>
       <c r="E97" s="2">
-        <v>2237</v>
+        <v>2621</v>
       </c>
       <c r="F97" s="3">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="G97" s="3">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="H97" s="4">
         <v>0.05</v>
@@ -2189,14 +2259,14 @@
       <c r="C98" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>23</v>
+      <c r="E98" s="5">
+        <v>3488</v>
+      </c>
+      <c r="F98" s="1">
+        <v>90</v>
+      </c>
+      <c r="G98" s="1">
+        <v>211</v>
       </c>
       <c r="H98" s="6">
         <v>0.05</v>
@@ -2568,17 +2638,17 @@
       <c r="C122">
         <v>80</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>23</v>
+      <c r="E122" s="5">
+        <v>8481</v>
+      </c>
+      <c r="F122" s="1">
+        <v>188</v>
+      </c>
+      <c r="G122" s="1">
+        <v>532</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0.18</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -6280,10 +6350,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M5:Y5"/>
-    <mergeCell ref="M6:Y6"/>
-    <mergeCell ref="M7:Y7"/>
+  <mergeCells count="2">
+    <mergeCell ref="O19:AB19"/>
+    <mergeCell ref="P15:AB15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
